--- a/Users Loads19.xlsx
+++ b/Users Loads19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.03233562237469</v>
+        <v>1.835940330277484</v>
       </c>
       <c r="C2" t="n">
-        <v>2.390706796318814</v>
+        <v>3.230376277753256</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3162885755207602</v>
+        <v>0.2926989868425439</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8.181505653661153</v>
+        <v>8.475344398840846</v>
       </c>
       <c r="C3" t="n">
-        <v>5.72946317859977</v>
+        <v>6.984832544430162</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7186903826435371</v>
+        <v>0.1046356402809086</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8.991298099379533</v>
+        <v>8.631195580249331</v>
       </c>
       <c r="C4" t="n">
-        <v>6.283244727840345</v>
+        <v>3.866418119113546</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3056261380756918</v>
+        <v>0.2429153396576904</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.232122256427175</v>
+        <v>8.997468905687182</v>
       </c>
       <c r="C5" t="n">
-        <v>3.873077697100975</v>
+        <v>11.3864114120676</v>
       </c>
       <c r="D5" t="n">
-        <v>0.574909035443542</v>
+        <v>0.3149368528947745</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.24326423723137</v>
+        <v>11.21206103842722</v>
       </c>
       <c r="C6" t="n">
-        <v>4.214278818622244</v>
+        <v>4.735509233805131</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7525018210361822</v>
+        <v>0.3987609710512867</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.70828084321778</v>
+        <v>14.57935990438859</v>
       </c>
       <c r="C7" t="n">
-        <v>2.531464177543465</v>
+        <v>4.665168682740525</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2291011725639915</v>
+        <v>0.2555202946935587</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>18.43147632757821</v>
+        <v>14.87497347225885</v>
       </c>
       <c r="C8" t="n">
-        <v>6.118039501378628</v>
+        <v>4.915375584805513</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6958012636918659</v>
+        <v>0.3419357241511858</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>18.6127383774412</v>
+        <v>15.50837519354749</v>
       </c>
       <c r="C9" t="n">
-        <v>2.474605040966388</v>
+        <v>5.416161294987182</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3347119550743076</v>
+        <v>0.08521242169328522</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.74592372845925</v>
+        <v>16.77482751291398</v>
       </c>
       <c r="C10" t="n">
-        <v>6.252783345388107</v>
+        <v>3.667717151358299</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3612186352820519</v>
+        <v>0.3215056188415228</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>21.83621988486705</v>
+        <v>20.63139664295238</v>
       </c>
       <c r="C11" t="n">
-        <v>4.542473765666823</v>
+        <v>3.740597772363054</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5486289276581583</v>
+        <v>0.122830270515992</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>23.26202999778903</v>
+        <v>21.15192989415073</v>
       </c>
       <c r="C12" t="n">
-        <v>4.544362820895921</v>
+        <v>10.21363055831688</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5578036977092375</v>
+        <v>0.3534461488825369</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>25.85227465153044</v>
+        <v>21.33388482737919</v>
       </c>
       <c r="C13" t="n">
-        <v>3.76393883361046</v>
+        <v>4.369581885073277</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3854007902925596</v>
+        <v>0.1619881376898507</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>29.98606236187712</v>
+        <v>24.80017405620643</v>
       </c>
       <c r="C14" t="n">
-        <v>4.995914721777767</v>
+        <v>11.7129360566776</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6290458252097726</v>
+        <v>0.5424233266480257</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>30.49457423928534</v>
+        <v>25.56522779962446</v>
       </c>
       <c r="C15" t="n">
-        <v>4.503170832689435</v>
+        <v>6.326122436069289</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3470440252519235</v>
+        <v>0.455298509422811</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>30.9710438540359</v>
+        <v>26.43341987300064</v>
       </c>
       <c r="C16" t="n">
-        <v>7.22541354571332</v>
+        <v>2.623697903572965</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4205388851895941</v>
+        <v>0.277239177483033</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>31.66921373057529</v>
+        <v>31.09041086878132</v>
       </c>
       <c r="C17" t="n">
-        <v>5.101558395152274</v>
+        <v>5.363855985624959</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5375880446897964</v>
+        <v>0.2054052315177273</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>39.2658721403284</v>
+        <v>31.59327420912789</v>
       </c>
       <c r="C18" t="n">
-        <v>2.105509113538926</v>
+        <v>11.02752812786597</v>
       </c>
       <c r="D18" t="n">
-        <v>0.335395299971784</v>
+        <v>0.2734367037740995</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>41.44419406791508</v>
+        <v>32.68921439478268</v>
       </c>
       <c r="C19" t="n">
-        <v>4.844863588098441</v>
+        <v>6.733329698549494</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8213855458011904</v>
+        <v>0.3226102352803845</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>41.91904804508223</v>
+        <v>33.62909348313258</v>
       </c>
       <c r="C20" t="n">
-        <v>3.375699457590873</v>
+        <v>5.174453786977046</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2529831789957199</v>
+        <v>0.217977132522423</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>44.11633610087478</v>
+        <v>35.17494858068797</v>
       </c>
       <c r="C21" t="n">
-        <v>7.988045235509473</v>
+        <v>2.379255306931858</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6966938733137965</v>
+        <v>0.2518266547266559</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>47.1337365524433</v>
+        <v>38.72201377512928</v>
       </c>
       <c r="C22" t="n">
-        <v>3.790157114116917</v>
+        <v>10.38845423934469</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3512992619177396</v>
+        <v>0.4406309967226275</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>47.57865986311803</v>
+        <v>44.47617890710871</v>
       </c>
       <c r="C23" t="n">
-        <v>4.385927453053686</v>
+        <v>5.543518137976344</v>
       </c>
       <c r="D23" t="n">
-        <v>0.39037308893224</v>
+        <v>0.4276398685039972</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>48.22785777813164</v>
+        <v>45.59664606451351</v>
       </c>
       <c r="C24" t="n">
-        <v>1.999835954703543</v>
+        <v>1.525279926936533</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2554712206317992</v>
+        <v>0.1938432043782048</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>48.28626996468325</v>
+        <v>59.55584277247033</v>
       </c>
       <c r="C25" t="n">
-        <v>6.133357546725091</v>
+        <v>8.4652273662902</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5390618166593758</v>
+        <v>0.3073265388170409</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>50.44779294167383</v>
+        <v>66.83395720587539</v>
       </c>
       <c r="C26" t="n">
-        <v>6.48071532591404</v>
+        <v>3.726437243746259</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6996084574186845</v>
+        <v>0.1746197229544027</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>52.57468048570066</v>
+        <v>67.39615534098206</v>
       </c>
       <c r="C27" t="n">
-        <v>4.398560625700135</v>
+        <v>5.481992472932705</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2096388825082957</v>
+        <v>0.2064033648773851</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>53.38353818016439</v>
+        <v>71.00993007968667</v>
       </c>
       <c r="C28" t="n">
-        <v>2.281643152778112</v>
+        <v>8.807975441925445</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4488907856559918</v>
+        <v>0.2941528578173399</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>65.19414940399132</v>
+        <v>87.9829781893532</v>
       </c>
       <c r="C29" t="n">
-        <v>7.534582826065635</v>
+        <v>4.584239571246671</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3439564883786095</v>
+        <v>0.3987171273803903</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>65.7019718284167</v>
+        <v>90.3029266862508</v>
       </c>
       <c r="C30" t="n">
-        <v>2.60390155108546</v>
+        <v>5.491126954588989</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3921415793981067</v>
+        <v>0.2703690812815168</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>66.84186352996944</v>
+        <v>90.49540817524218</v>
       </c>
       <c r="C31" t="n">
-        <v>2.742437370850151</v>
+        <v>2.797966978456842</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3976748944158615</v>
+        <v>0.1782442861792367</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>70.70949909807342</v>
+        <v>93.61222139446551</v>
       </c>
       <c r="C32" t="n">
-        <v>4.176767756601123</v>
+        <v>8.022678061788417</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6364885144782393</v>
+        <v>0.4295377321902156</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>72.3505057134178</v>
+        <v>94.09459006280413</v>
       </c>
       <c r="C33" t="n">
-        <v>2.018571217850937</v>
+        <v>4.07555108224582</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3850791809275245</v>
+        <v>0.2847670942756964</v>
       </c>
     </row>
     <row r="34">
@@ -903,209 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>72.9735883815101</v>
+        <v>98.53939003495401</v>
       </c>
       <c r="C34" t="n">
-        <v>4.130836752491566</v>
+        <v>1.449928269533457</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5484743864289907</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>73.77689117810756</v>
-      </c>
-      <c r="C35" t="n">
-        <v>8.717768906891926</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.8137127740500536</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>74.18908455807288</v>
-      </c>
-      <c r="C36" t="n">
-        <v>3.127435548269152</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.2111005210206924</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>74.38068417519777</v>
-      </c>
-      <c r="C37" t="n">
-        <v>4.993857767108357</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.6479179274947796</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>75.17832738849926</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1.395651345579204</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.2254281694446467</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>76.20202227008609</v>
-      </c>
-      <c r="C39" t="n">
-        <v>4.590349444834281</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.3548214246323392</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>78.05922579073413</v>
-      </c>
-      <c r="C40" t="n">
-        <v>4.105958506795118</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.4675023884150347</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>79.27805571975185</v>
-      </c>
-      <c r="C41" t="n">
-        <v>3.439868720875554</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.3465386827117543</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>80.12371817123466</v>
-      </c>
-      <c r="C42" t="n">
-        <v>5.618118287165145</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.5372337378592671</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>86.50471313703733</v>
-      </c>
-      <c r="C43" t="n">
-        <v>2.283503061465283</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.4609229895416192</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>91.05141817474698</v>
-      </c>
-      <c r="C44" t="n">
-        <v>7.025187793673605</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.4165044183484936</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>96.46398379018966</v>
-      </c>
-      <c r="C45" t="n">
-        <v>4.345033790269797</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.7301757934783951</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>96.57395619111882</v>
-      </c>
-      <c r="C46" t="n">
-        <v>5.590407589397653</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.3099428424154271</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>97.30712897246619</v>
-      </c>
-      <c r="C47" t="n">
-        <v>5.580232661433139</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.5734924982549238</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>99.67377186889888</v>
-      </c>
-      <c r="C48" t="n">
-        <v>5.831180504213521</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.4942761927683282</v>
+        <v>0.2154738764362104</v>
       </c>
     </row>
   </sheetData>
